--- a/MISSION/CAMPAÑA/DOCS/ECONOMIA CAMPAÑA.xlsx
+++ b/MISSION/CAMPAÑA/DOCS/ECONOMIA CAMPAÑA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Saved Games\DCS.openbeta\Missions\GITHUB\MISSION\CAMPAÑA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Saved Games\DCS.openbeta\Missions\GITHUB\MISSION\CAMPAÑA\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3074BE04-05CB-4FF7-BC36-C802FC6BB936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ADD70D-31D5-4795-9935-BCF0F2079850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="-13710" windowWidth="28800" windowHeight="11295" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aviones" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="245">
   <si>
     <t>PL-5EII</t>
   </si>
@@ -777,6 +777,9 @@
   </si>
   <si>
     <t>Fuel Tank Ft600 - A10CII</t>
+  </si>
+  <si>
+    <t>F15C</t>
   </si>
 </sst>
 </file>
@@ -1855,7 +1858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="281">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2516,30 +2519,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2549,9 +2555,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2615,10 +2618,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2938,10 +2938,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3851,7 +3851,7 @@
         <v>4</v>
       </c>
       <c r="I35" s="40">
-        <f t="shared" ref="I35:I36" si="2">H35*G35</f>
+        <f t="shared" ref="I35:I37" si="2">H35*G35</f>
         <v>158000000</v>
       </c>
     </row>
@@ -3881,53 +3881,53 @@
         <v>4</v>
       </c>
       <c r="I36" s="40">
+        <f t="shared" ref="I36" si="3">H36*G36</f>
+        <v>166000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="B37" s="47">
+        <v>1</v>
+      </c>
+      <c r="C37" s="8">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1</v>
+      </c>
+      <c r="E37" s="48">
+        <v>6</v>
+      </c>
+      <c r="F37" s="36">
+        <v>1501</v>
+      </c>
+      <c r="G37" s="53">
+        <v>39500000</v>
+      </c>
+      <c r="H37" s="57">
+        <v>4</v>
+      </c>
+      <c r="I37" s="40">
         <f t="shared" si="2"/>
-        <v>166000000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="K37" s="122"/>
+        <v>158000000</v>
+      </c>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="47">
-        <v>1</v>
-      </c>
-      <c r="C38" s="8">
-        <v>1</v>
-      </c>
-      <c r="D38" s="8">
-        <v>1</v>
-      </c>
-      <c r="E38" s="48">
-        <v>271</v>
-      </c>
-      <c r="F38" s="36">
-        <v>1266</v>
-      </c>
-      <c r="G38" s="53">
-        <v>45500000</v>
-      </c>
-      <c r="H38" s="57">
-        <v>4</v>
-      </c>
-      <c r="I38" s="40">
-        <f t="shared" ref="I38:I43" si="3">H38*G38</f>
-        <v>182000000</v>
-      </c>
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="K38" s="122"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="60" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B39" s="47">
         <v>1</v>
@@ -3939,25 +3939,25 @@
         <v>1</v>
       </c>
       <c r="E39" s="48">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F39" s="36">
-        <v>1258</v>
+        <v>1266</v>
       </c>
       <c r="G39" s="53">
-        <v>48500000</v>
+        <v>45500000</v>
       </c>
       <c r="H39" s="57">
         <v>4</v>
       </c>
       <c r="I39" s="40">
-        <f t="shared" si="3"/>
-        <v>194000000</v>
+        <f t="shared" ref="I39:I44" si="4">H39*G39</f>
+        <v>182000000</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" s="47">
         <v>1</v>
@@ -3969,25 +3969,25 @@
         <v>1</v>
       </c>
       <c r="E40" s="48">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F40" s="36">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G40" s="53">
-        <v>50000000</v>
+        <v>48500000</v>
       </c>
       <c r="H40" s="57">
         <v>4</v>
       </c>
       <c r="I40" s="40">
-        <f t="shared" si="3"/>
-        <v>200000000</v>
+        <f t="shared" si="4"/>
+        <v>194000000</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="60" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B41" s="47">
         <v>1</v>
@@ -3999,25 +3999,25 @@
         <v>1</v>
       </c>
       <c r="E41" s="48">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F41" s="36">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="G41" s="53">
-        <v>55000000</v>
+        <v>50000000</v>
       </c>
       <c r="H41" s="57">
         <v>4</v>
       </c>
       <c r="I41" s="40">
-        <f t="shared" si="3"/>
-        <v>220000000</v>
+        <f t="shared" si="4"/>
+        <v>200000000</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42" s="47">
         <v>1</v>
@@ -4029,92 +4029,94 @@
         <v>1</v>
       </c>
       <c r="E42" s="48">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="F42" s="36">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="G42" s="53">
-        <v>65000000</v>
+        <v>55000000</v>
       </c>
       <c r="H42" s="57">
         <v>4</v>
       </c>
       <c r="I42" s="40">
-        <f t="shared" si="3"/>
-        <v>260000000</v>
+        <f t="shared" si="4"/>
+        <v>220000000</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="47">
+        <v>1</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1</v>
+      </c>
+      <c r="E43" s="48">
+        <v>327</v>
+      </c>
+      <c r="F43" s="36">
+        <v>1260</v>
+      </c>
+      <c r="G43" s="53">
+        <v>65000000</v>
+      </c>
+      <c r="H43" s="57">
+        <v>4</v>
+      </c>
+      <c r="I43" s="40">
+        <f t="shared" si="4"/>
+        <v>260000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="47">
-        <v>1</v>
-      </c>
-      <c r="C43" s="8">
-        <v>1</v>
-      </c>
-      <c r="D43" s="8">
-        <v>1</v>
-      </c>
-      <c r="E43" s="48">
+      <c r="B44" s="47">
+        <v>1</v>
+      </c>
+      <c r="C44" s="8">
+        <v>1</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1</v>
+      </c>
+      <c r="E44" s="48">
         <v>280</v>
       </c>
-      <c r="F43" s="36">
+      <c r="F44" s="36">
         <v>1264</v>
       </c>
-      <c r="G43" s="53">
+      <c r="G44" s="53">
         <v>70000000</v>
       </c>
-      <c r="H43" s="57">
-        <v>4</v>
-      </c>
-      <c r="I43" s="40">
-        <f t="shared" si="3"/>
+      <c r="H44" s="57">
+        <v>4</v>
+      </c>
+      <c r="I44" s="40">
+        <f t="shared" si="4"/>
         <v>280000000</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-    </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="47">
-        <v>1</v>
-      </c>
-      <c r="C45" s="8">
-        <v>1</v>
-      </c>
-      <c r="D45" s="8">
-        <v>5</v>
-      </c>
-      <c r="E45" s="48">
-        <v>41</v>
-      </c>
-      <c r="F45" s="36">
-        <v>1256</v>
-      </c>
-      <c r="G45" s="53">
-        <v>275000000</v>
-      </c>
-      <c r="H45" s="57"/>
-      <c r="I45" s="40">
-        <f>H45*G45</f>
-        <v>0</v>
-      </c>
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="60" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B46" s="47">
         <v>1</v>
@@ -4126,13 +4128,13 @@
         <v>5</v>
       </c>
       <c r="E46" s="48">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F46" s="36">
-        <v>1251</v>
+        <v>1256</v>
       </c>
       <c r="G46" s="53">
-        <v>330000000</v>
+        <v>275000000</v>
       </c>
       <c r="H46" s="57"/>
       <c r="I46" s="40">
@@ -4140,31 +4142,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="61" t="s">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="8">
+        <v>1</v>
+      </c>
+      <c r="D47" s="8">
+        <v>5</v>
+      </c>
+      <c r="E47" s="48">
+        <v>26</v>
+      </c>
+      <c r="F47" s="36">
+        <v>1251</v>
+      </c>
+      <c r="G47" s="53">
+        <v>330000000</v>
+      </c>
+      <c r="H47" s="57"/>
+      <c r="I47" s="40">
+        <f>H47*G47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="49">
-        <v>1</v>
-      </c>
-      <c r="C47" s="50">
-        <v>1</v>
-      </c>
-      <c r="D47" s="50">
+      <c r="B48" s="49">
+        <v>1</v>
+      </c>
+      <c r="C48" s="50">
+        <v>1</v>
+      </c>
+      <c r="D48" s="50">
         <v>5</v>
       </c>
-      <c r="E47" s="51">
+      <c r="E48" s="51">
         <v>27</v>
       </c>
-      <c r="F47" s="38">
+      <c r="F48" s="38">
         <v>1257</v>
       </c>
-      <c r="G47" s="55">
+      <c r="G48" s="55">
         <v>380000000</v>
       </c>
-      <c r="H47" s="58"/>
-      <c r="I47" s="41">
-        <f>H47*G47</f>
+      <c r="H48" s="58"/>
+      <c r="I48" s="41">
+        <f>H48*G48</f>
         <v>0</v>
       </c>
     </row>
@@ -4187,10 +4217,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A36" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5994,6 +6024,12 @@
       <c r="J55" s="179"/>
       <c r="K55" s="181"/>
     </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G56" s="279"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="161"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A51:A53"/>
@@ -6003,6 +6039,7 @@
     <mergeCell ref="A2:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9444,7 +9481,7 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E26" sqref="E26:E27"/>
     </sheetView>
   </sheetViews>
@@ -9475,7 +9512,7 @@
       <c r="A2" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="246" t="s">
+      <c r="B2" s="250" t="s">
         <v>102</v>
       </c>
       <c r="C2" s="187">
@@ -9494,7 +9531,7 @@
       <c r="A3" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="247"/>
+      <c r="B3" s="251"/>
       <c r="C3" s="187">
         <f>+AA!I4</f>
         <v>32000</v>
@@ -9508,7 +9545,7 @@
       <c r="A4" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="250" t="s">
         <v>102</v>
       </c>
       <c r="C4" s="188">
@@ -9527,7 +9564,7 @@
       <c r="A5" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="247"/>
+      <c r="B5" s="251"/>
       <c r="C5" s="189">
         <f>+AA!I9</f>
         <v>130000</v>
@@ -9541,7 +9578,7 @@
       <c r="A6" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="246" t="s">
+      <c r="B6" s="250" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="188">
@@ -9560,7 +9597,7 @@
       <c r="A7" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="247"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="187">
         <f>+AA!I7</f>
         <v>115000</v>
@@ -9574,7 +9611,7 @@
       <c r="A8" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="246" t="s">
+      <c r="B8" s="250" t="s">
         <v>102</v>
       </c>
       <c r="C8" s="188">
@@ -9593,7 +9630,7 @@
       <c r="A9" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="247"/>
+      <c r="B9" s="251"/>
       <c r="C9" s="187">
         <f>+AA!I39</f>
         <v>115000</v>
@@ -9607,7 +9644,7 @@
       <c r="A10" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="246" t="s">
+      <c r="B10" s="250" t="s">
         <v>102</v>
       </c>
       <c r="C10" s="188">
@@ -9626,7 +9663,7 @@
       <c r="A11" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="247"/>
+      <c r="B11" s="251"/>
       <c r="C11" s="189">
         <f>+AA!I44</f>
         <v>80000</v>
@@ -9730,7 +9767,7 @@
       <c r="A18" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="250" t="s">
+      <c r="B18" s="246" t="s">
         <v>102</v>
       </c>
       <c r="C18" s="192">
@@ -9749,7 +9786,7 @@
       <c r="A19" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="251"/>
+      <c r="B19" s="247"/>
       <c r="C19" s="192">
         <f>+AA!I18</f>
         <v>200000</v>
@@ -9782,12 +9819,12 @@
       <c r="A21" s="154" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="251"/>
-      <c r="C21" s="279">
+      <c r="B21" s="247"/>
+      <c r="C21" s="194">
         <f>+AA!I36</f>
         <v>125000</v>
       </c>
-      <c r="D21" s="280">
+      <c r="D21" s="38">
         <v>10</v>
       </c>
       <c r="E21" s="249"/>
@@ -9796,7 +9833,7 @@
       <c r="A22" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="246" t="s">
+      <c r="B22" s="250" t="s">
         <v>102</v>
       </c>
       <c r="C22" s="188">
@@ -9815,7 +9852,7 @@
       <c r="A23" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="247"/>
+      <c r="B23" s="251"/>
       <c r="C23" s="189">
         <f>+AA!I50</f>
         <v>114000</v>
@@ -9848,7 +9885,7 @@
       <c r="A26" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="250" t="s">
+      <c r="B26" s="246" t="s">
         <v>102</v>
       </c>
       <c r="C26" s="192">
@@ -9867,7 +9904,7 @@
       <c r="A27" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="251"/>
+      <c r="B27" s="247"/>
       <c r="C27" s="192">
         <f>+AA!I20</f>
         <v>400000</v>
@@ -9881,7 +9918,7 @@
       <c r="A28" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="250" t="s">
+      <c r="B28" s="246" t="s">
         <v>102</v>
       </c>
       <c r="C28" s="192">
@@ -9900,7 +9937,7 @@
       <c r="A29" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="251"/>
+      <c r="B29" s="247"/>
       <c r="C29" s="194">
         <f>+AA!I24</f>
         <v>1120000</v>
@@ -9953,6 +9990,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="B20:B21"/>
@@ -9961,18 +10010,6 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10027,7 +10064,7 @@
       <c r="A3" s="107" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="246" t="s">
+      <c r="B3" s="250" t="s">
         <v>102</v>
       </c>
       <c r="C3" s="42">
@@ -10041,7 +10078,7 @@
       <c r="A4" s="105" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="247"/>
+      <c r="B4" s="251"/>
       <c r="C4" s="37">
         <v>20</v>
       </c>
@@ -10051,7 +10088,7 @@
       <c r="A5" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="246" t="s">
+      <c r="B5" s="250" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="35">
@@ -10075,7 +10112,7 @@
       <c r="A7" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="247"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="38">
         <v>2</v>
       </c>
@@ -10085,7 +10122,7 @@
       <c r="A8" s="107" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="246" t="s">
+      <c r="B8" s="250" t="s">
         <v>102</v>
       </c>
       <c r="C8" s="35">
@@ -10109,7 +10146,7 @@
       <c r="A10" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="247"/>
+      <c r="B10" s="251"/>
       <c r="C10" s="37">
         <v>2</v>
       </c>
@@ -10119,7 +10156,7 @@
       <c r="A11" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="246" t="s">
+      <c r="B11" s="250" t="s">
         <v>102</v>
       </c>
       <c r="C11" s="35">
@@ -10143,7 +10180,7 @@
       <c r="A13" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="250" t="s">
         <v>102</v>
       </c>
       <c r="C13" s="35">
@@ -10167,7 +10204,7 @@
       <c r="A15" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="247"/>
+      <c r="B15" s="251"/>
       <c r="C15" s="37">
         <v>10</v>
       </c>
@@ -10192,7 +10229,7 @@
       <c r="A17" s="155" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="246" t="s">
+      <c r="B17" s="250" t="s">
         <v>102</v>
       </c>
       <c r="C17" s="35">
@@ -10216,7 +10253,7 @@
       <c r="A19" s="155" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="246" t="s">
+      <c r="B19" s="250" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="35">
@@ -10230,7 +10267,7 @@
       <c r="A20" s="167" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="247"/>
+      <c r="B20" s="251"/>
       <c r="C20" s="124">
         <v>10</v>
       </c>
@@ -10253,7 +10290,7 @@
       <c r="A23" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="250" t="s">
+      <c r="B23" s="246" t="s">
         <v>102</v>
       </c>
       <c r="C23" s="42">
@@ -10267,7 +10304,7 @@
       <c r="A24" s="108" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="251"/>
+      <c r="B24" s="247"/>
       <c r="C24" s="37">
         <v>1</v>
       </c>
@@ -10291,7 +10328,7 @@
       <c r="A26" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="251"/>
+      <c r="B26" s="247"/>
       <c r="C26" s="38">
         <v>2</v>
       </c>
@@ -10301,7 +10338,7 @@
       <c r="A27" s="155" t="s">
         <v>176</v>
       </c>
-      <c r="B27" s="246" t="s">
+      <c r="B27" s="250" t="s">
         <v>102</v>
       </c>
       <c r="C27" s="35">
@@ -10315,7 +10352,7 @@
       <c r="A28" s="166" t="s">
         <v>177</v>
       </c>
-      <c r="B28" s="247"/>
+      <c r="B28" s="251"/>
       <c r="C28" s="38">
         <v>2</v>
       </c>
@@ -10371,7 +10408,7 @@
       <c r="A33" s="153" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="250" t="s">
+      <c r="B33" s="246" t="s">
         <v>102</v>
       </c>
       <c r="C33" s="35">
@@ -10385,7 +10422,7 @@
       <c r="A34" s="154" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="251"/>
+      <c r="B34" s="247"/>
       <c r="C34" s="38">
         <v>6</v>
       </c>
@@ -10438,7 +10475,7 @@
       <c r="A39" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="257"/>
+      <c r="B39" s="254"/>
       <c r="C39" s="38">
         <v>6</v>
       </c>
@@ -10463,7 +10500,7 @@
       <c r="A41" s="108" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="257"/>
+      <c r="B41" s="254"/>
       <c r="C41" s="38">
         <v>10</v>
       </c>
@@ -10474,7 +10511,7 @@
       <c r="A42" s="152" t="s">
         <v>228</v>
       </c>
-      <c r="B42" s="250" t="s">
+      <c r="B42" s="246" t="s">
         <v>102</v>
       </c>
       <c r="C42" s="35">
@@ -10488,7 +10525,7 @@
       <c r="A43" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="B43" s="250"/>
+      <c r="B43" s="246"/>
       <c r="C43" s="143">
         <v>10</v>
       </c>
@@ -10498,7 +10535,7 @@
       <c r="A44" s="149" t="s">
         <v>226</v>
       </c>
-      <c r="B44" s="251"/>
+      <c r="B44" s="247"/>
       <c r="C44" s="38">
         <v>20</v>
       </c>
@@ -10535,7 +10572,7 @@
       <c r="A48" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="B48" s="246" t="s">
+      <c r="B48" s="250" t="s">
         <v>102</v>
       </c>
       <c r="C48" s="42">
@@ -10549,7 +10586,7 @@
       <c r="A49" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="B49" s="247"/>
+      <c r="B49" s="251"/>
       <c r="C49" s="37">
         <v>60</v>
       </c>
@@ -10559,7 +10596,7 @@
       <c r="A50" s="107" t="s">
         <v>171</v>
       </c>
-      <c r="B50" s="246" t="s">
+      <c r="B50" s="250" t="s">
         <v>102</v>
       </c>
       <c r="C50" s="35">
@@ -10583,7 +10620,7 @@
       <c r="A52" s="169" t="s">
         <v>173</v>
       </c>
-      <c r="B52" s="247"/>
+      <c r="B52" s="251"/>
       <c r="C52" s="37">
         <v>60</v>
       </c>
@@ -10599,7 +10636,7 @@
       <c r="C53" s="35">
         <v>60</v>
       </c>
-      <c r="D53" s="255">
+      <c r="D53" s="256">
         <v>260000</v>
       </c>
     </row>
@@ -10607,31 +10644,31 @@
       <c r="A54" s="149" t="s">
         <v>188</v>
       </c>
-      <c r="B54" s="254"/>
+      <c r="B54" s="255"/>
       <c r="C54" s="36">
         <v>60</v>
       </c>
-      <c r="D54" s="256"/>
+      <c r="D54" s="257"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="149" t="s">
         <v>189</v>
       </c>
-      <c r="B55" s="254"/>
+      <c r="B55" s="255"/>
       <c r="C55" s="36">
         <v>60</v>
       </c>
-      <c r="D55" s="256"/>
+      <c r="D55" s="257"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="170" t="s">
         <v>190</v>
       </c>
-      <c r="B56" s="254"/>
+      <c r="B56" s="255"/>
       <c r="C56" s="38">
         <v>60</v>
       </c>
-      <c r="D56" s="256"/>
+      <c r="D56" s="257"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="121" t="s">
@@ -10668,12 +10705,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="B11:B12"/>
@@ -10690,18 +10733,12 @@
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10715,7 +10752,7 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -11169,7 +11206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3437CE9E-D719-49E9-8AFF-1B6127BD14F3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/MISSION/CAMPAÑA/DOCS/ECONOMIA CAMPAÑA.xlsx
+++ b/MISSION/CAMPAÑA/DOCS/ECONOMIA CAMPAÑA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Saved Games\DCS.openbeta\Missions\GITHUB\MISSION\CAMPAÑA\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ADD70D-31D5-4795-9935-BCF0F2079850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090C46F0-4C50-4C22-9EDE-501C979E2F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="-13710" windowWidth="28800" windowHeight="11295" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-195" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aviones" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="249">
   <si>
     <t>PL-5EII</t>
   </si>
@@ -780,6 +780,18 @@
   </si>
   <si>
     <t>F15C</t>
+  </si>
+  <si>
+    <t>530F IR</t>
+  </si>
+  <si>
+    <t>AGM-62 Walleye I</t>
+  </si>
+  <si>
+    <t>AGM-62 Walleye II</t>
+  </si>
+  <si>
+    <t>SEÑUELOS</t>
   </si>
 </sst>
 </file>
@@ -1858,7 +1870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2372,6 +2384,15 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2519,42 +2540,42 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2618,7 +2639,29 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2940,7 +2983,7 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
@@ -2960,12 +3003,12 @@
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="198"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="201"/>
       <c r="F1" s="9" t="s">
         <v>39</v>
       </c>
@@ -4219,8 +4262,8 @@
   </sheetPr>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4264,7 +4307,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="212" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -4300,7 +4343,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="210"/>
+      <c r="A3" s="213"/>
       <c r="B3" s="63" t="s">
         <v>97</v>
       </c>
@@ -4334,7 +4377,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="210"/>
+      <c r="A4" s="213"/>
       <c r="B4" s="63" t="s">
         <v>60</v>
       </c>
@@ -4368,7 +4411,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="210"/>
+      <c r="A5" s="213"/>
       <c r="B5" s="63" t="s">
         <v>61</v>
       </c>
@@ -4402,7 +4445,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="210"/>
+      <c r="A6" s="213"/>
       <c r="B6" s="63" t="s">
         <v>45</v>
       </c>
@@ -4436,7 +4479,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="210"/>
+      <c r="A7" s="213"/>
       <c r="B7" s="63" t="s">
         <v>46</v>
       </c>
@@ -4470,7 +4513,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="210"/>
+      <c r="A8" s="213"/>
       <c r="B8" s="63" t="s">
         <v>56</v>
       </c>
@@ -4504,7 +4547,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="210"/>
+      <c r="A9" s="213"/>
       <c r="B9" s="63" t="s">
         <v>57</v>
       </c>
@@ -4538,7 +4581,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="210"/>
+      <c r="A10" s="213"/>
       <c r="B10" s="63" t="s">
         <v>58</v>
       </c>
@@ -4572,7 +4615,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="210"/>
+      <c r="A11" s="213"/>
       <c r="B11" s="63" t="s">
         <v>47</v>
       </c>
@@ -4595,18 +4638,18 @@
         <v>1250</v>
       </c>
       <c r="I11" s="91">
-        <v>180000</v>
+        <v>325000</v>
       </c>
       <c r="J11" s="71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K11" s="68">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3250000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="210"/>
+      <c r="A12" s="213"/>
       <c r="B12" s="63" t="s">
         <v>48</v>
       </c>
@@ -4640,7 +4683,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="210"/>
+      <c r="A13" s="213"/>
       <c r="B13" s="63" t="s">
         <v>62</v>
       </c>
@@ -4674,7 +4717,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="210"/>
+      <c r="A14" s="213"/>
       <c r="B14" s="63" t="s">
         <v>63</v>
       </c>
@@ -4708,7 +4751,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="210"/>
+      <c r="A15" s="213"/>
       <c r="B15" s="63" t="s">
         <v>52</v>
       </c>
@@ -4742,7 +4785,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="210"/>
+      <c r="A16" s="213"/>
       <c r="B16" s="63" t="s">
         <v>53</v>
       </c>
@@ -4776,7 +4819,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="210"/>
+      <c r="A17" s="213"/>
       <c r="B17" s="64" t="s">
         <v>54</v>
       </c>
@@ -4810,7 +4853,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="210"/>
+      <c r="A18" s="213"/>
       <c r="B18" s="63" t="s">
         <v>55</v>
       </c>
@@ -4844,7 +4887,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="210"/>
+      <c r="A19" s="213"/>
       <c r="B19" s="63" t="s">
         <v>50</v>
       </c>
@@ -4878,7 +4921,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="210"/>
+      <c r="A20" s="213"/>
       <c r="B20" s="63" t="s">
         <v>51</v>
       </c>
@@ -4912,7 +4955,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="210"/>
+      <c r="A21" s="213"/>
       <c r="B21" s="63" t="s">
         <v>93</v>
       </c>
@@ -4946,7 +4989,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="210"/>
+      <c r="A22" s="213"/>
       <c r="B22" s="63" t="s">
         <v>94</v>
       </c>
@@ -4980,7 +5023,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="210"/>
+      <c r="A23" s="213"/>
       <c r="B23" s="63" t="s">
         <v>95</v>
       </c>
@@ -5014,7 +5057,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="211"/>
+      <c r="A24" s="214"/>
       <c r="B24" s="65" t="s">
         <v>96</v>
       </c>
@@ -5048,7 +5091,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="201" t="s">
+      <c r="A25" s="204" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="32" t="s">
@@ -5084,7 +5127,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="202"/>
+      <c r="A26" s="205"/>
       <c r="B26" s="16" t="s">
         <v>89</v>
       </c>
@@ -5118,7 +5161,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="202"/>
+      <c r="A27" s="205"/>
       <c r="B27" s="16" t="s">
         <v>91</v>
       </c>
@@ -5152,7 +5195,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="202"/>
+      <c r="A28" s="205"/>
       <c r="B28" s="16" t="s">
         <v>92</v>
       </c>
@@ -5186,7 +5229,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="202"/>
+      <c r="A29" s="205"/>
       <c r="B29" s="16" t="s">
         <v>64</v>
       </c>
@@ -5220,7 +5263,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="202"/>
+      <c r="A30" s="205"/>
       <c r="B30" s="16" t="s">
         <v>65</v>
       </c>
@@ -5254,7 +5297,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="202"/>
+      <c r="A31" s="205"/>
       <c r="B31" s="16" t="s">
         <v>66</v>
       </c>
@@ -5280,7 +5323,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="202"/>
+      <c r="A32" s="205"/>
       <c r="B32" s="16" t="s">
         <v>67</v>
       </c>
@@ -5306,7 +5349,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="202"/>
+      <c r="A33" s="205"/>
       <c r="B33" s="16" t="s">
         <v>69</v>
       </c>
@@ -5332,7 +5375,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="202"/>
+      <c r="A34" s="205"/>
       <c r="B34" s="16" t="s">
         <v>74</v>
       </c>
@@ -5366,7 +5409,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="202"/>
+      <c r="A35" s="205"/>
       <c r="B35" s="16" t="s">
         <v>73</v>
       </c>
@@ -5400,7 +5443,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="202"/>
+      <c r="A36" s="205"/>
       <c r="B36" s="16" t="s">
         <v>72</v>
       </c>
@@ -5434,7 +5477,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="202"/>
+      <c r="A37" s="205"/>
       <c r="B37" s="16" t="s">
         <v>71</v>
       </c>
@@ -5468,7 +5511,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="202"/>
+      <c r="A38" s="205"/>
       <c r="B38" s="16" t="s">
         <v>68</v>
       </c>
@@ -5502,7 +5545,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="202"/>
+      <c r="A39" s="205"/>
       <c r="B39" s="16" t="s">
         <v>70</v>
       </c>
@@ -5536,7 +5579,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="203"/>
+      <c r="A40" s="206"/>
       <c r="B40" s="20" t="s">
         <v>75</v>
       </c>
@@ -5570,7 +5613,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="204" t="s">
+      <c r="A41" s="207" t="s">
         <v>87</v>
       </c>
       <c r="B41" s="84" t="s">
@@ -5606,7 +5649,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="205"/>
+      <c r="A42" s="208"/>
       <c r="B42" s="85" t="s">
         <v>76</v>
       </c>
@@ -5640,7 +5683,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="206" t="s">
+      <c r="A43" s="209" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="82" t="s">
@@ -5668,7 +5711,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="207"/>
+      <c r="A44" s="210"/>
       <c r="B44" s="83" t="s">
         <v>78</v>
       </c>
@@ -5694,15 +5737,15 @@
         <v>80000</v>
       </c>
       <c r="J44" s="71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K44" s="68">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="207"/>
+      <c r="A45" s="210"/>
       <c r="B45" s="83" t="s">
         <v>79</v>
       </c>
@@ -5736,7 +5779,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="207"/>
+      <c r="A46" s="210"/>
       <c r="B46" s="83" t="s">
         <v>80</v>
       </c>
@@ -5770,7 +5813,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="207"/>
+      <c r="A47" s="210"/>
       <c r="B47" s="83" t="s">
         <v>81</v>
       </c>
@@ -5796,15 +5839,15 @@
         <v>76000</v>
       </c>
       <c r="J47" s="71">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K47" s="68">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1520000</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="207"/>
+      <c r="A48" s="210"/>
       <c r="B48" s="83" t="s">
         <v>82</v>
       </c>
@@ -5838,7 +5881,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="207"/>
+      <c r="A49" s="210"/>
       <c r="B49" s="83" t="s">
         <v>83</v>
       </c>
@@ -5864,15 +5907,15 @@
         <v>110000</v>
       </c>
       <c r="J49" s="71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K49" s="68">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="208"/>
+      <c r="A50" s="211"/>
       <c r="B50" s="89" t="s">
         <v>84</v>
       </c>
@@ -5906,7 +5949,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="199" t="s">
+      <c r="A51" s="202" t="s">
         <v>100</v>
       </c>
       <c r="B51" s="117" t="s">
@@ -5942,7 +5985,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="200"/>
+      <c r="A52" s="203"/>
       <c r="B52" s="105" t="s">
         <v>99</v>
       </c>
@@ -5976,7 +6019,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="200"/>
+      <c r="A53" s="203"/>
       <c r="B53" s="106" t="s">
         <v>101</v>
       </c>
@@ -6016,7 +6059,7 @@
       <c r="J54" s="177"/>
       <c r="K54" s="180">
         <f>SUM(K2:K53)</f>
-        <v>0</v>
+        <v>6670000</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6025,7 +6068,7 @@
       <c r="K55" s="181"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G56" s="279"/>
+      <c r="G56" s="199"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K57" s="161"/>
@@ -6048,10 +6091,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A6" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6073,12 +6116,12 @@
       <c r="C1" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="218" t="s">
+      <c r="D1" s="221" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="220"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="223"/>
       <c r="H1" s="15"/>
       <c r="I1" s="43" t="s">
         <v>41</v>
@@ -6091,7 +6134,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="232" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -6127,7 +6170,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="230"/>
+      <c r="A3" s="233"/>
       <c r="B3" s="105" t="s">
         <v>203</v>
       </c>
@@ -6156,12 +6199,12 @@
         <v>0</v>
       </c>
       <c r="K3" s="53">
-        <f t="shared" ref="K3:K52" si="0">I3*J3</f>
+        <f t="shared" ref="K3:K54" si="0">I3*J3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="230"/>
+      <c r="A4" s="233"/>
       <c r="B4" s="105" t="s">
         <v>153</v>
       </c>
@@ -6195,7 +6238,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="230"/>
+      <c r="A5" s="233"/>
       <c r="B5" s="105" t="s">
         <v>154</v>
       </c>
@@ -6229,7 +6272,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="230"/>
+      <c r="A6" s="233"/>
       <c r="B6" s="105" t="s">
         <v>155</v>
       </c>
@@ -6263,7 +6306,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="230"/>
+      <c r="A7" s="233"/>
       <c r="B7" s="105" t="s">
         <v>156</v>
       </c>
@@ -6297,7 +6340,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="230"/>
+      <c r="A8" s="233"/>
       <c r="B8" s="105" t="s">
         <v>157</v>
       </c>
@@ -6331,7 +6374,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="230"/>
+      <c r="A9" s="233"/>
       <c r="B9" s="105" t="s">
         <v>206</v>
       </c>
@@ -6365,7 +6408,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="230"/>
+      <c r="A10" s="233"/>
       <c r="B10" s="105" t="s">
         <v>158</v>
       </c>
@@ -6399,7 +6442,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="230"/>
+      <c r="A11" s="233"/>
       <c r="B11" s="105" t="s">
         <v>160</v>
       </c>
@@ -6432,7 +6475,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="230"/>
+      <c r="A12" s="233"/>
       <c r="B12" s="105" t="s">
         <v>161</v>
       </c>
@@ -6465,7 +6508,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="230"/>
+      <c r="A13" s="233"/>
       <c r="B13" s="105" t="s">
         <v>162</v>
       </c>
@@ -6499,7 +6542,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="230"/>
+      <c r="A14" s="233"/>
       <c r="B14" s="105" t="s">
         <v>163</v>
       </c>
@@ -6533,7 +6576,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="230"/>
+      <c r="A15" s="233"/>
       <c r="B15" s="105" t="s">
         <v>164</v>
       </c>
@@ -6567,7 +6610,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="230"/>
+      <c r="A16" s="233"/>
       <c r="B16" s="105" t="s">
         <v>165</v>
       </c>
@@ -6593,15 +6636,15 @@
         <v>20000</v>
       </c>
       <c r="J16" s="71">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K16" s="53">
         <f t="shared" si="0"/>
-        <v>1200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="230"/>
+      <c r="A17" s="233"/>
       <c r="B17" s="105" t="s">
         <v>166</v>
       </c>
@@ -6635,7 +6678,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="230"/>
+      <c r="A18" s="233"/>
       <c r="B18" s="105" t="s">
         <v>167</v>
       </c>
@@ -6669,7 +6712,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="230"/>
+      <c r="A19" s="233"/>
       <c r="B19" s="105" t="s">
         <v>168</v>
       </c>
@@ -6703,7 +6746,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="230"/>
+      <c r="A20" s="233"/>
       <c r="B20" s="105" t="s">
         <v>169</v>
       </c>
@@ -6737,7 +6780,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="230"/>
+      <c r="A21" s="233"/>
       <c r="B21" s="105" t="s">
         <v>170</v>
       </c>
@@ -6771,7 +6814,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="230"/>
+      <c r="A22" s="233"/>
       <c r="B22" s="105" t="s">
         <v>207</v>
       </c>
@@ -6805,98 +6848,98 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="230"/>
+      <c r="A23" s="233"/>
       <c r="B23" s="105" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D23" s="25">
         <v>4</v>
       </c>
       <c r="E23" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" s="2">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G23" s="3">
-        <v>39</v>
+        <v>459</v>
       </c>
       <c r="H23" s="36">
-        <v>1271</v>
+        <v>1500</v>
       </c>
       <c r="I23" s="68">
-        <v>125000</v>
+        <v>100000</v>
       </c>
       <c r="J23" s="71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K23" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="230"/>
+      <c r="A24" s="233"/>
       <c r="B24" s="105" t="s">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D24" s="25">
         <v>4</v>
       </c>
       <c r="E24" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F24" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G24" s="3">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="H24" s="36">
-        <v>1272</v>
+        <v>1501</v>
       </c>
       <c r="I24" s="68">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="J24" s="71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K24" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="230"/>
+      <c r="A25" s="233"/>
       <c r="B25" s="105" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D25" s="25">
         <v>4</v>
       </c>
       <c r="E25" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F25" s="2">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G25" s="3">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="H25" s="36">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I25" s="68">
-        <v>5200</v>
+        <v>125000</v>
       </c>
       <c r="J25" s="71">
         <v>0</v>
@@ -6906,169 +6949,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="230"/>
-      <c r="B26" s="108" t="s">
+    <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="233"/>
+      <c r="B26" s="105" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="25">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2">
+        <v>7</v>
+      </c>
+      <c r="F26" s="2">
+        <v>33</v>
+      </c>
+      <c r="G26" s="3">
+        <v>147</v>
+      </c>
+      <c r="H26" s="36">
+        <v>1272</v>
+      </c>
+      <c r="I26" s="68">
+        <v>5000</v>
+      </c>
+      <c r="J26" s="71">
+        <v>0</v>
+      </c>
+      <c r="K26" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="233"/>
+      <c r="B27" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="25">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2">
+        <v>7</v>
+      </c>
+      <c r="F27" s="2">
+        <v>33</v>
+      </c>
+      <c r="G27" s="3">
+        <v>145</v>
+      </c>
+      <c r="H27" s="36">
+        <v>1273</v>
+      </c>
+      <c r="I27" s="68">
+        <v>5200</v>
+      </c>
+      <c r="J27" s="71">
+        <v>0</v>
+      </c>
+      <c r="K27" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="233"/>
+      <c r="B28" s="108" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="27">
-        <v>4</v>
-      </c>
-      <c r="E26" s="19">
+      <c r="D28" s="27">
+        <v>4</v>
+      </c>
+      <c r="E28" s="19">
         <v>7</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F28" s="19">
         <v>33</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G28" s="22">
         <v>144</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H28" s="38">
         <v>1274</v>
       </c>
-      <c r="I26" s="73">
+      <c r="I28" s="73">
         <v>4800</v>
       </c>
-      <c r="J26" s="72">
-        <v>0</v>
-      </c>
-      <c r="K26" s="55">
+      <c r="J28" s="72">
+        <v>0</v>
+      </c>
+      <c r="K28" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="221" t="s">
+    <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="224" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="152" t="s">
+      <c r="B29" s="152" t="s">
         <v>184</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C29" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="23">
-        <v>4</v>
-      </c>
-      <c r="E27" s="18">
+      <c r="D29" s="23">
+        <v>4</v>
+      </c>
+      <c r="E29" s="18">
         <v>5</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F29" s="18">
         <v>9</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G29" s="21">
         <v>6</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H29" s="35">
         <v>1275</v>
       </c>
-      <c r="I27" s="67">
+      <c r="I29" s="67">
         <v>3000</v>
       </c>
-      <c r="J27" s="70">
-        <v>0</v>
-      </c>
-      <c r="K27" s="52">
+      <c r="J29" s="70">
+        <v>0</v>
+      </c>
+      <c r="K29" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="221"/>
-      <c r="B28" s="149" t="s">
+    <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="224"/>
+      <c r="B30" s="149" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C30" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="25">
-        <v>4</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="D30" s="25">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2">
         <v>5</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F30" s="2">
         <v>9</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G30" s="3">
         <v>7</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H30" s="36">
         <v>1276</v>
       </c>
-      <c r="I28" s="68">
+      <c r="I30" s="68">
         <v>6000</v>
-      </c>
-      <c r="J28" s="71">
-        <v>0</v>
-      </c>
-      <c r="K28" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="221"/>
-      <c r="B29" s="149" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="25">
-        <v>4</v>
-      </c>
-      <c r="E29" s="2">
-        <v>5</v>
-      </c>
-      <c r="F29" s="2">
-        <v>37</v>
-      </c>
-      <c r="G29" s="3">
-        <v>4</v>
-      </c>
-      <c r="H29" s="36">
-        <v>1277</v>
-      </c>
-      <c r="I29" s="68">
-        <v>8000</v>
-      </c>
-      <c r="J29" s="71">
-        <v>0</v>
-      </c>
-      <c r="K29" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="221"/>
-      <c r="B30" s="149" t="s">
-        <v>187</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="D30" s="25">
-        <v>4</v>
-      </c>
-      <c r="E30" s="2">
-        <v>7</v>
-      </c>
-      <c r="F30" s="2">
-        <v>33</v>
-      </c>
-      <c r="G30" s="3">
-        <v>442</v>
-      </c>
-      <c r="H30" s="36">
-        <v>1278</v>
-      </c>
-      <c r="I30" s="68">
-        <v>2500</v>
       </c>
       <c r="J30" s="71">
         <v>0</v>
@@ -7079,30 +7122,30 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="221"/>
+      <c r="A31" s="224"/>
       <c r="B31" s="149" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="D31" s="25">
         <v>4</v>
       </c>
       <c r="E31" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F31" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G31" s="3">
-        <v>441</v>
+        <v>4</v>
       </c>
       <c r="H31" s="36">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I31" s="68">
-        <v>2400</v>
+        <v>8000</v>
       </c>
       <c r="J31" s="71">
         <v>0</v>
@@ -7113,9 +7156,9 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="221"/>
+      <c r="A32" s="224"/>
       <c r="B32" s="149" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C32" s="36" t="s">
         <v>182</v>
@@ -7130,13 +7173,13 @@
         <v>33</v>
       </c>
       <c r="G32" s="3">
-        <v>32</v>
+        <v>442</v>
       </c>
       <c r="H32" s="36">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="I32" s="68">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="J32" s="71">
         <v>0</v>
@@ -7147,9 +7190,9 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="221"/>
+      <c r="A33" s="224"/>
       <c r="B33" s="149" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C33" s="36" t="s">
         <v>182</v>
@@ -7164,13 +7207,13 @@
         <v>33</v>
       </c>
       <c r="G33" s="3">
-        <v>155</v>
+        <v>441</v>
       </c>
       <c r="H33" s="36">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="I33" s="68">
-        <v>8500</v>
+        <v>2400</v>
       </c>
       <c r="J33" s="71">
         <v>0</v>
@@ -7181,30 +7224,30 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="221"/>
+      <c r="A34" s="224"/>
       <c r="B34" s="149" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D34" s="25">
         <v>4</v>
       </c>
       <c r="E34" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F34" s="2">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G34" s="3">
-        <v>353</v>
+        <v>32</v>
       </c>
       <c r="H34" s="36">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I34" s="68">
-        <v>100000</v>
+        <v>6000</v>
       </c>
       <c r="J34" s="71">
         <v>0</v>
@@ -7215,30 +7258,30 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="221"/>
+      <c r="A35" s="224"/>
       <c r="B35" s="149" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D35" s="25">
         <v>4</v>
       </c>
       <c r="E35" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F35" s="2">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G35" s="3">
-        <v>354</v>
+        <v>155</v>
       </c>
       <c r="H35" s="36">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I35" s="68">
-        <v>80000</v>
+        <v>8500</v>
       </c>
       <c r="J35" s="71">
         <v>0</v>
@@ -7249,9 +7292,9 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="221"/>
+      <c r="A36" s="224"/>
       <c r="B36" s="149" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C36" s="36" t="s">
         <v>181</v>
@@ -7266,13 +7309,13 @@
         <v>8</v>
       </c>
       <c r="G36" s="3">
-        <v>58</v>
+        <v>353</v>
       </c>
       <c r="H36" s="36">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I36" s="68">
-        <v>135000</v>
+        <v>100000</v>
       </c>
       <c r="J36" s="71">
         <v>0</v>
@@ -7283,12 +7326,12 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="221"/>
+      <c r="A37" s="224"/>
       <c r="B37" s="149" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D37" s="25">
         <v>4</v>
@@ -7300,13 +7343,13 @@
         <v>8</v>
       </c>
       <c r="G37" s="3">
-        <v>46</v>
+        <v>354</v>
       </c>
       <c r="H37" s="36">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I37" s="68">
-        <v>1000000</v>
+        <v>80000</v>
       </c>
       <c r="J37" s="71">
         <v>0</v>
@@ -7317,12 +7360,12 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="221"/>
+      <c r="A38" s="224"/>
       <c r="B38" s="149" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D38" s="25">
         <v>4</v>
@@ -7334,13 +7377,13 @@
         <v>8</v>
       </c>
       <c r="G38" s="3">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H38" s="36">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I38" s="68">
-        <v>450000</v>
+        <v>135000</v>
       </c>
       <c r="J38" s="71">
         <v>0</v>
@@ -7349,12 +7392,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L38" s="122"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="221"/>
+      <c r="A39" s="224"/>
       <c r="B39" s="149" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C39" s="36" t="s">
         <v>196</v>
@@ -7369,13 +7411,13 @@
         <v>8</v>
       </c>
       <c r="G39" s="3">
-        <v>287</v>
+        <v>46</v>
       </c>
       <c r="H39" s="36">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I39" s="68">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="J39" s="71">
         <v>0</v>
@@ -7385,148 +7427,149 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="222"/>
-      <c r="B40" s="154" t="s">
+    <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="224"/>
+      <c r="B40" s="149" t="s">
+        <v>227</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="25">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2">
+        <v>8</v>
+      </c>
+      <c r="G40" s="3">
+        <v>45</v>
+      </c>
+      <c r="H40" s="36">
+        <v>1286</v>
+      </c>
+      <c r="I40" s="68">
+        <v>450000</v>
+      </c>
+      <c r="J40" s="71">
+        <v>0</v>
+      </c>
+      <c r="K40" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="122"/>
+    </row>
+    <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="224"/>
+      <c r="B41" s="149" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" s="25">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3">
+        <v>287</v>
+      </c>
+      <c r="H41" s="36">
+        <v>1287</v>
+      </c>
+      <c r="I41" s="68">
+        <v>600000</v>
+      </c>
+      <c r="J41" s="71">
+        <v>0</v>
+      </c>
+      <c r="K41" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="225"/>
+      <c r="B42" s="154" t="s">
         <v>195</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C42" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="D40" s="27">
-        <v>4</v>
-      </c>
-      <c r="E40" s="19">
-        <v>4</v>
-      </c>
-      <c r="F40" s="19">
+      <c r="D42" s="27">
+        <v>4</v>
+      </c>
+      <c r="E42" s="19">
+        <v>4</v>
+      </c>
+      <c r="F42" s="19">
         <v>8</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G42" s="22">
         <v>75</v>
       </c>
-      <c r="H40" s="38">
+      <c r="H42" s="38">
         <v>1288</v>
       </c>
-      <c r="I40" s="73">
+      <c r="I42" s="73">
         <v>550000</v>
       </c>
-      <c r="J40" s="72">
-        <v>0</v>
-      </c>
-      <c r="K40" s="55">
+      <c r="J42" s="72">
+        <v>0</v>
+      </c>
+      <c r="K42" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="223" t="s">
+    <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="226" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="155" t="s">
+      <c r="B43" s="155" t="s">
         <v>199</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C43" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="D41" s="23">
-        <v>4</v>
-      </c>
-      <c r="E41" s="18">
-        <v>4</v>
-      </c>
-      <c r="F41" s="18">
+      <c r="D43" s="23">
+        <v>4</v>
+      </c>
+      <c r="E43" s="18">
+        <v>4</v>
+      </c>
+      <c r="F43" s="18">
         <v>8</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G43" s="21">
         <v>305</v>
       </c>
-      <c r="H41" s="35">
+      <c r="H43" s="35">
         <v>1289</v>
       </c>
-      <c r="I41" s="67">
+      <c r="I43" s="67">
         <v>600000</v>
       </c>
-      <c r="J41" s="70">
-        <v>0</v>
-      </c>
-      <c r="K41" s="52">
+      <c r="J43" s="70">
+        <v>0</v>
+      </c>
+      <c r="K43" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="224"/>
-      <c r="B42" s="150" t="s">
+    <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="227"/>
+      <c r="B44" s="150" t="s">
         <v>200</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="D42" s="25">
-        <v>4</v>
-      </c>
-      <c r="E42" s="2">
-        <v>4</v>
-      </c>
-      <c r="F42" s="2">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3">
-        <v>295</v>
-      </c>
-      <c r="H42" s="36">
-        <v>1290</v>
-      </c>
-      <c r="I42" s="68">
-        <v>450000</v>
-      </c>
-      <c r="J42" s="71">
-        <v>0</v>
-      </c>
-      <c r="K42" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="224"/>
-      <c r="B43" s="150" t="s">
-        <v>201</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="D43" s="25">
-        <v>4</v>
-      </c>
-      <c r="E43" s="2">
-        <v>4</v>
-      </c>
-      <c r="F43" s="2">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3">
-        <v>298</v>
-      </c>
-      <c r="H43" s="36">
-        <v>1291</v>
-      </c>
-      <c r="I43" s="68">
-        <v>440000</v>
-      </c>
-      <c r="J43" s="71">
-        <v>0</v>
-      </c>
-      <c r="K43" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="224"/>
-      <c r="B44" s="150" t="s">
-        <v>174</v>
       </c>
       <c r="C44" s="36" t="s">
         <v>183</v>
@@ -7541,13 +7584,13 @@
         <v>8</v>
       </c>
       <c r="G44" s="3">
-        <v>432</v>
+        <v>295</v>
       </c>
       <c r="H44" s="36">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I44" s="68">
-        <v>80000</v>
+        <v>450000</v>
       </c>
       <c r="J44" s="71">
         <v>0</v>
@@ -7558,9 +7601,9 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="224"/>
+      <c r="A45" s="227"/>
       <c r="B45" s="150" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="C45" s="36" t="s">
         <v>183</v>
@@ -7575,13 +7618,13 @@
         <v>8</v>
       </c>
       <c r="G45" s="3">
-        <v>433</v>
+        <v>298</v>
       </c>
       <c r="H45" s="36">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I45" s="68">
-        <v>50000</v>
+        <v>440000</v>
       </c>
       <c r="J45" s="71">
         <v>0</v>
@@ -7592,12 +7635,12 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="224"/>
+      <c r="A46" s="227"/>
       <c r="B46" s="150" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="D46" s="25">
         <v>4</v>
@@ -7609,13 +7652,13 @@
         <v>8</v>
       </c>
       <c r="G46" s="3">
-        <v>362</v>
+        <v>432</v>
       </c>
       <c r="H46" s="36">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I46" s="68">
-        <v>950000</v>
+        <v>80000</v>
       </c>
       <c r="J46" s="71">
         <v>0</v>
@@ -7626,9 +7669,9 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="224"/>
+      <c r="A47" s="227"/>
       <c r="B47" s="150" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C47" s="36" t="s">
         <v>183</v>
@@ -7643,13 +7686,13 @@
         <v>8</v>
       </c>
       <c r="G47" s="3">
-        <v>304</v>
+        <v>433</v>
       </c>
       <c r="H47" s="36">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="I47" s="68">
-        <v>1300000</v>
+        <v>50000</v>
       </c>
       <c r="J47" s="71">
         <v>0</v>
@@ -7659,195 +7702,263 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="225"/>
-      <c r="B48" s="163" t="s">
+    <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="227"/>
+      <c r="B48" s="150" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="25">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2">
+        <v>4</v>
+      </c>
+      <c r="F48" s="2">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3">
+        <v>362</v>
+      </c>
+      <c r="H48" s="36">
+        <v>1294</v>
+      </c>
+      <c r="I48" s="68">
+        <v>950000</v>
+      </c>
+      <c r="J48" s="71">
+        <v>0</v>
+      </c>
+      <c r="K48" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="227"/>
+      <c r="B49" s="150" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="25">
+        <v>4</v>
+      </c>
+      <c r="E49" s="2">
+        <v>4</v>
+      </c>
+      <c r="F49" s="2">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3">
+        <v>304</v>
+      </c>
+      <c r="H49" s="36">
+        <v>1295</v>
+      </c>
+      <c r="I49" s="68">
+        <v>1300000</v>
+      </c>
+      <c r="J49" s="71">
+        <v>0</v>
+      </c>
+      <c r="K49" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="228"/>
+      <c r="B50" s="163" t="s">
         <v>180</v>
       </c>
-      <c r="C48" s="38" t="s">
+      <c r="C50" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="D48" s="27">
-        <v>4</v>
-      </c>
-      <c r="E48" s="19">
-        <v>4</v>
-      </c>
-      <c r="F48" s="19">
+      <c r="D50" s="27">
+        <v>4</v>
+      </c>
+      <c r="E50" s="19">
+        <v>4</v>
+      </c>
+      <c r="F50" s="19">
         <v>8</v>
       </c>
-      <c r="G48" s="22">
+      <c r="G50" s="22">
         <v>298</v>
       </c>
-      <c r="H48" s="38">
+      <c r="H50" s="38">
         <v>1296</v>
       </c>
-      <c r="I48" s="69">
+      <c r="I50" s="69">
         <v>35000</v>
       </c>
-      <c r="J48" s="142">
-        <v>0</v>
-      </c>
-      <c r="K48" s="158">
+      <c r="J50" s="142">
+        <v>0</v>
+      </c>
+      <c r="K50" s="158">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="226" t="s">
+    <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="229" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="113" t="s">
+      <c r="B51" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C51" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="35">
+      <c r="D51" s="23"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="35">
         <v>1297</v>
       </c>
-      <c r="I49" s="67">
-        <v>0</v>
-      </c>
-      <c r="J49" s="70">
-        <v>0</v>
-      </c>
-      <c r="K49" s="52">
+      <c r="I51" s="67">
+        <v>0</v>
+      </c>
+      <c r="J51" s="70">
+        <v>0</v>
+      </c>
+      <c r="K51" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="227"/>
-      <c r="B50" s="151" t="s">
+    <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="230"/>
+      <c r="B52" s="151" t="s">
         <v>205</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C52" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="25">
-        <v>4</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="D52" s="25">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2">
         <v>5</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F52" s="2">
         <v>9</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G52" s="3">
         <v>389</v>
       </c>
-      <c r="H50" s="36">
+      <c r="H52" s="36">
         <v>1298</v>
       </c>
-      <c r="I50" s="68">
+      <c r="I52" s="68">
         <v>2000</v>
       </c>
-      <c r="J50" s="71">
-        <v>0</v>
-      </c>
-      <c r="K50" s="53">
+      <c r="J52" s="71">
+        <v>0</v>
+      </c>
+      <c r="K52" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="227"/>
-      <c r="B51" s="151" t="s">
+    <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="230"/>
+      <c r="B53" s="151" t="s">
         <v>179</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C53" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D51" s="25">
-        <v>4</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="D53" s="25">
+        <v>4</v>
+      </c>
+      <c r="E53" s="2">
         <v>7</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F53" s="2">
         <v>33</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G53" s="3">
         <v>376</v>
       </c>
-      <c r="H51" s="36">
+      <c r="H53" s="36">
         <v>1299</v>
       </c>
-      <c r="I51" s="68">
+      <c r="I53" s="68">
         <v>2500</v>
       </c>
-      <c r="J51" s="71">
-        <v>0</v>
-      </c>
-      <c r="K51" s="53">
+      <c r="J53" s="71">
+        <v>0</v>
+      </c>
+      <c r="K53" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L51" s="122"/>
-    </row>
-    <row r="52" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="228"/>
-      <c r="B52" s="106" t="s">
+      <c r="L53" s="122"/>
+    </row>
+    <row r="54" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="231"/>
+      <c r="B54" s="106" t="s">
         <v>230</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C54" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="27">
-        <v>4</v>
-      </c>
-      <c r="E52" s="19">
-        <v>4</v>
-      </c>
-      <c r="F52" s="19">
+      <c r="D54" s="27">
+        <v>4</v>
+      </c>
+      <c r="E54" s="19">
+        <v>4</v>
+      </c>
+      <c r="F54" s="19">
         <v>8</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G54" s="22">
         <v>407</v>
       </c>
-      <c r="H52" s="38">
+      <c r="H54" s="38">
         <v>1300</v>
       </c>
-      <c r="I52" s="73">
+      <c r="I54" s="73">
         <v>80000</v>
       </c>
-      <c r="J52" s="72">
-        <v>0</v>
-      </c>
-      <c r="K52" s="55">
+      <c r="J54" s="72">
+        <v>0</v>
+      </c>
+      <c r="K54" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I53" s="212" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I55" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="J53" s="213"/>
-      <c r="K53" s="216">
-        <f>SUM(K2:K52)</f>
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I54" s="214"/>
-      <c r="J54" s="215"/>
-      <c r="K54" s="217"/>
+      <c r="J55" s="216"/>
+      <c r="K55" s="219">
+        <f>SUM(K2:K54)</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I56" s="217"/>
+      <c r="J56" s="218"/>
+      <c r="K56" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="I53:J54"/>
-    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="I55:J56"/>
+    <mergeCell ref="K55:K56"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A27:A40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="A29:A42"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A2:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7880,12 +7991,12 @@
       <c r="B1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="218" t="s">
+      <c r="C1" s="221" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="220"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="223"/>
       <c r="G1" s="15" t="s">
         <v>39</v>
       </c>
@@ -7900,7 +8011,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="237" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="59" t="s">
@@ -7931,7 +8042,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="235"/>
+      <c r="A3" s="238"/>
       <c r="B3" s="60" t="s">
         <v>106</v>
       </c>
@@ -7960,7 +8071,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="235"/>
+      <c r="A4" s="238"/>
       <c r="B4" s="60" t="s">
         <v>107</v>
       </c>
@@ -7989,7 +8100,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="235"/>
+      <c r="A5" s="238"/>
       <c r="B5" s="128" t="s">
         <v>108</v>
       </c>
@@ -8018,7 +8129,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="235"/>
+      <c r="A6" s="238"/>
       <c r="B6" s="60" t="s">
         <v>122</v>
       </c>
@@ -8047,7 +8158,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="235"/>
+      <c r="A7" s="238"/>
       <c r="B7" s="60" t="s">
         <v>109</v>
       </c>
@@ -8076,7 +8187,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="235"/>
+      <c r="A8" s="238"/>
       <c r="B8" s="60" t="s">
         <v>110</v>
       </c>
@@ -8105,7 +8216,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="235"/>
+      <c r="A9" s="238"/>
       <c r="B9" s="60" t="s">
         <v>115</v>
       </c>
@@ -8134,7 +8245,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="235"/>
+      <c r="A10" s="238"/>
       <c r="B10" s="60" t="s">
         <v>116</v>
       </c>
@@ -8163,7 +8274,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="235"/>
+      <c r="A11" s="238"/>
       <c r="B11" s="60" t="s">
         <v>111</v>
       </c>
@@ -8192,7 +8303,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="235"/>
+      <c r="A12" s="238"/>
       <c r="B12" s="60" t="s">
         <v>112</v>
       </c>
@@ -8221,7 +8332,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="235"/>
+      <c r="A13" s="238"/>
       <c r="B13" s="60" t="s">
         <v>113</v>
       </c>
@@ -8250,7 +8361,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="235"/>
+      <c r="A14" s="238"/>
       <c r="B14" s="60" t="s">
         <v>114</v>
       </c>
@@ -8279,7 +8390,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="235"/>
+      <c r="A15" s="238"/>
       <c r="B15" s="60" t="s">
         <v>117</v>
       </c>
@@ -8308,7 +8419,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="235"/>
+      <c r="A16" s="238"/>
       <c r="B16" s="60" t="s">
         <v>118</v>
       </c>
@@ -8337,7 +8448,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="235"/>
+      <c r="A17" s="238"/>
       <c r="B17" s="60" t="s">
         <v>119</v>
       </c>
@@ -8366,7 +8477,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="235"/>
+      <c r="A18" s="238"/>
       <c r="B18" s="60" t="s">
         <v>120</v>
       </c>
@@ -8395,7 +8506,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="236"/>
+      <c r="A19" s="239"/>
       <c r="B19" s="147" t="s">
         <v>121</v>
       </c>
@@ -8424,7 +8535,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="237" t="s">
+      <c r="A20" s="240" t="s">
         <v>141</v>
       </c>
       <c r="B20" s="59" t="s">
@@ -8455,7 +8566,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="238"/>
+      <c r="A21" s="241"/>
       <c r="B21" s="60" t="s">
         <v>139</v>
       </c>
@@ -8484,7 +8595,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="238"/>
+      <c r="A22" s="241"/>
       <c r="B22" s="60" t="s">
         <v>132</v>
       </c>
@@ -8513,7 +8624,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="238"/>
+      <c r="A23" s="241"/>
       <c r="B23" s="60" t="s">
         <v>127</v>
       </c>
@@ -8542,7 +8653,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="238"/>
+      <c r="A24" s="241"/>
       <c r="B24" s="60" t="s">
         <v>128</v>
       </c>
@@ -8571,7 +8682,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="238"/>
+      <c r="A25" s="241"/>
       <c r="B25" s="60" t="s">
         <v>147</v>
       </c>
@@ -8600,7 +8711,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="238"/>
+      <c r="A26" s="241"/>
       <c r="B26" s="60" t="s">
         <v>191</v>
       </c>
@@ -8629,7 +8740,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="239"/>
+      <c r="A27" s="242"/>
       <c r="B27" s="61" t="s">
         <v>135</v>
       </c>
@@ -8658,7 +8769,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="240" t="s">
+      <c r="A28" s="243" t="s">
         <v>143</v>
       </c>
       <c r="B28" s="131" t="s">
@@ -8689,7 +8800,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="241"/>
+      <c r="A29" s="244"/>
       <c r="B29" s="130" t="s">
         <v>137</v>
       </c>
@@ -8718,7 +8829,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="241"/>
+      <c r="A30" s="244"/>
       <c r="B30" s="130" t="s">
         <v>131</v>
       </c>
@@ -8747,7 +8858,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="242"/>
+      <c r="A31" s="245"/>
       <c r="B31" s="132" t="s">
         <v>138</v>
       </c>
@@ -8776,7 +8887,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="243" t="s">
+      <c r="A32" s="246" t="s">
         <v>144</v>
       </c>
       <c r="B32" s="129" t="s">
@@ -8809,7 +8920,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="244"/>
+      <c r="A33" s="247"/>
       <c r="B33" s="130" t="s">
         <v>129</v>
       </c>
@@ -8840,7 +8951,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="244"/>
+      <c r="A34" s="247"/>
       <c r="B34" s="130" t="s">
         <v>133</v>
       </c>
@@ -8871,7 +8982,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="244"/>
+      <c r="A35" s="247"/>
       <c r="B35" s="130" t="s">
         <v>134</v>
       </c>
@@ -8902,7 +9013,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="244"/>
+      <c r="A36" s="247"/>
       <c r="B36" s="130" t="s">
         <v>125</v>
       </c>
@@ -8933,7 +9044,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="244"/>
+      <c r="A37" s="247"/>
       <c r="B37" s="130" t="s">
         <v>192</v>
       </c>
@@ -8964,7 +9075,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="244"/>
+      <c r="A38" s="247"/>
       <c r="B38" s="130" t="s">
         <v>130</v>
       </c>
@@ -8995,7 +9106,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="245"/>
+      <c r="A39" s="248"/>
       <c r="B39" s="132" t="s">
         <v>142</v>
       </c>
@@ -9057,19 +9168,19 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H41" s="231" t="s">
+      <c r="H41" s="234" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="232"/>
-      <c r="J41" s="216">
+      <c r="I41" s="235"/>
+      <c r="J41" s="219">
         <f>SUM(J2:J40)</f>
         <v>31130000</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H42" s="214"/>
-      <c r="I42" s="233"/>
-      <c r="J42" s="217"/>
+      <c r="H42" s="217"/>
+      <c r="I42" s="236"/>
+      <c r="J42" s="220"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -9479,10 +9590,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9493,7 +9604,7 @@
     <col min="5" max="5" width="21.28515625" style="110" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
@@ -9508,11 +9619,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="250" t="s">
+      <c r="B2" s="249" t="s">
         <v>102</v>
       </c>
       <c r="C2" s="187">
@@ -9522,16 +9633,16 @@
       <c r="D2" s="42">
         <v>20</v>
       </c>
-      <c r="E2" s="248">
+      <c r="E2" s="251">
         <f>+(C2*D2)+(C3*D3)</f>
         <v>820000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="251"/>
+      <c r="B3" s="250"/>
       <c r="C3" s="187">
         <f>+AA!I4</f>
         <v>32000</v>
@@ -9539,13 +9650,13 @@
       <c r="D3" s="37">
         <v>10</v>
       </c>
-      <c r="E3" s="249"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="252"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="250" t="s">
+      <c r="B4" s="249" t="s">
         <v>102</v>
       </c>
       <c r="C4" s="188">
@@ -9555,16 +9666,16 @@
       <c r="D4" s="35">
         <v>20</v>
       </c>
-      <c r="E4" s="248">
+      <c r="E4" s="251">
         <f>+(C4*D4)+(C5*D5)</f>
         <v>3700000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="251"/>
+      <c r="B5" s="250"/>
       <c r="C5" s="189">
         <f>+AA!I9</f>
         <v>130000</v>
@@ -9572,13 +9683,13 @@
       <c r="D5" s="38">
         <v>10</v>
       </c>
-      <c r="E5" s="249"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="252"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="250" t="s">
+      <c r="B6" s="249" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="188">
@@ -9588,16 +9699,16 @@
       <c r="D6" s="35">
         <v>20</v>
       </c>
-      <c r="E6" s="248">
+      <c r="E6" s="251">
         <f>+(C6*D6)+(C7*D7)</f>
         <v>3350000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="251"/>
+      <c r="B7" s="250"/>
       <c r="C7" s="187">
         <f>+AA!I7</f>
         <v>115000</v>
@@ -9605,411 +9716,443 @@
       <c r="D7" s="37">
         <v>10</v>
       </c>
-      <c r="E7" s="249"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="111" t="s">
+      <c r="E7" s="252"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="143" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="91">
+        <v>325000</v>
+      </c>
+      <c r="D8" s="13">
+        <v>10</v>
+      </c>
+      <c r="E8" s="283">
+        <f t="shared" ref="E8" si="0">C8*D8</f>
+        <v>3250000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="250" t="s">
+      <c r="B9" s="249" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="188">
+      <c r="C9" s="188">
         <f>+AA!I29</f>
         <v>27000</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D9" s="35">
         <v>20</v>
       </c>
-      <c r="E8" s="248">
-        <f>+(C8*D8)+(C9*D9)</f>
+      <c r="E9" s="251">
+        <f>+(C9*D9)+(C10*D10)</f>
         <v>1690000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="112" t="s">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="251"/>
-      <c r="C9" s="187">
+      <c r="B10" s="250"/>
+      <c r="C10" s="187">
         <f>+AA!I39</f>
         <v>115000</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D10" s="37">
         <v>10</v>
       </c>
-      <c r="E9" s="249"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="113" t="s">
+      <c r="E10" s="252"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="250" t="s">
+      <c r="B11" s="221" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="188">
+      <c r="C11" s="193">
         <f>+AA!I47</f>
         <v>76000</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D11" s="15">
         <v>20</v>
       </c>
-      <c r="E10" s="248">
-        <f>+(C10*D10)+(C11*D11)</f>
+      <c r="E11" s="251">
+        <f>+(C11*D11)+(C12*D12)</f>
         <v>2320000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="106" t="s">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="251"/>
-      <c r="C11" s="189">
+      <c r="B12" s="253"/>
+      <c r="C12" s="192">
         <f>+AA!I44</f>
         <v>80000</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D12" s="143">
         <v>10</v>
       </c>
-      <c r="E11" s="249"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="E12" s="256"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="282" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="254"/>
+      <c r="C13" s="194">
+        <v>110000</v>
+      </c>
+      <c r="D13" s="124">
+        <v>10</v>
+      </c>
+      <c r="E13" s="252"/>
+      <c r="G13" s="284"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="188">
+      <c r="C14" s="187">
         <f>+AA!I41</f>
         <v>85000</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D14" s="143">
         <v>30</v>
       </c>
-      <c r="E12" s="77">
-        <f>+C12*D12</f>
+      <c r="E14" s="77">
+        <f>+C14*D14</f>
         <v>2550000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="119" t="s">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B15" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="190">
+      <c r="C15" s="190">
         <f>+AA!I51</f>
         <v>55000</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D15" s="13">
         <v>30</v>
       </c>
-      <c r="E13" s="43">
-        <f>+C13*D13</f>
+      <c r="E15" s="43">
+        <f>+C15*D15</f>
         <v>1650000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="120" t="s">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B16" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="190">
+      <c r="C16" s="190">
         <f>+AA!I52</f>
         <v>75000</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D16" s="13">
         <v>30</v>
       </c>
-      <c r="E14" s="43">
-        <f>+C14*D14</f>
+      <c r="E16" s="43">
+        <f>+C16*D16</f>
         <v>2250000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="121" t="s">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B17" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="190">
+      <c r="C17" s="190">
         <f>+AA!I53</f>
         <v>65000</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D17" s="13">
         <v>30</v>
       </c>
-      <c r="E15" s="43">
-        <f>+C15*D15</f>
+      <c r="E17" s="43">
+        <f>+C17*D17</f>
         <v>1950000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="13" t="s">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="109"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E19" s="43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="107" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="246" t="s">
+      <c r="B20" s="253" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="192">
+      <c r="C20" s="192">
         <f>+AA!I16</f>
         <v>175000</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D20" s="42">
         <v>10</v>
       </c>
-      <c r="E18" s="248">
-        <f>+(C18*D18)+(C19*D19)</f>
+      <c r="E20" s="251">
+        <f>+(C20*D20)+(C21*D21)</f>
         <v>5750000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="108" t="s">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="247"/>
-      <c r="C19" s="192">
+      <c r="B21" s="254"/>
+      <c r="C21" s="192">
         <f>+AA!I18</f>
         <v>200000</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D21" s="37">
         <v>20</v>
       </c>
-      <c r="E19" s="249"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="111" t="s">
+      <c r="E21" s="252"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="218" t="s">
+      <c r="B22" s="221" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="193">
+      <c r="C22" s="193">
         <f>+AA!I37</f>
         <v>130000</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D22" s="35">
         <v>20</v>
       </c>
-      <c r="E20" s="248">
-        <f>+(C20*D20)+(C21*D21)</f>
+      <c r="E22" s="251">
+        <f>+(C22*D22)+(C23*D23)</f>
         <v>3850000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="154" t="s">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="154" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="247"/>
-      <c r="C21" s="194">
+      <c r="B23" s="254"/>
+      <c r="C23" s="194">
         <f>+AA!I36</f>
         <v>125000</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D23" s="38">
         <v>10</v>
       </c>
-      <c r="E21" s="249"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="113" t="s">
+      <c r="E23" s="252"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="250" t="s">
+      <c r="B24" s="249" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="188">
+      <c r="C24" s="188">
         <f>+AA!I45</f>
         <v>260000</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D24" s="35">
         <v>20</v>
       </c>
-      <c r="E22" s="248">
-        <f>+(C22*D22)+(C23*D23)</f>
+      <c r="E24" s="251">
+        <f>+(C24*D24)+(C25*D25)</f>
         <v>6340000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="106" t="s">
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="251"/>
-      <c r="C23" s="189">
+      <c r="B25" s="250"/>
+      <c r="C25" s="189">
         <f>+AA!I50</f>
         <v>114000</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D25" s="38">
         <v>10</v>
       </c>
-      <c r="E23" s="249"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="195"/>
-      <c r="E24" s="116"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="E25" s="252"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="195"/>
+      <c r="E26" s="116"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="109"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="13" t="s">
+      <c r="B27" s="109"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E27" s="43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="107" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="246" t="s">
+      <c r="B28" s="253" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="192">
+      <c r="C28" s="192">
         <f>+AA!I19</f>
         <v>289000</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D28" s="42">
         <v>10</v>
       </c>
-      <c r="E26" s="248">
-        <f>+(C26*D26)+(C27*D27)</f>
+      <c r="E28" s="251">
+        <f>+(C28*D28)+(C29*D29)</f>
         <v>10890000</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="108" t="s">
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="247"/>
-      <c r="C27" s="192">
+      <c r="B29" s="254"/>
+      <c r="C29" s="192">
         <f>+AA!I20</f>
         <v>400000</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D29" s="37">
         <v>20</v>
       </c>
-      <c r="E27" s="249"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="107" t="s">
+      <c r="E29" s="252"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="246" t="s">
+      <c r="B30" s="253" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="192">
+      <c r="C30" s="192">
         <f>+AA!I21</f>
         <v>700000</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D30" s="35">
         <v>5</v>
       </c>
-      <c r="E28" s="248">
-        <f>+(C28*D28)+(C29*D29)</f>
+      <c r="E30" s="251">
+        <f>+(C30*D30)+(C31*D31)</f>
         <v>20300000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="108" t="s">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="247"/>
-      <c r="C29" s="194">
+      <c r="B31" s="254"/>
+      <c r="C31" s="194">
         <f>+AA!I24</f>
         <v>1120000</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D31" s="38">
         <v>15</v>
       </c>
-      <c r="E29" s="249"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="114" t="s">
+      <c r="E31" s="252"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B32" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="196">
+      <c r="C32" s="196">
         <f>+AA!I42</f>
         <v>400000</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D32" s="13">
         <v>25</v>
       </c>
-      <c r="E30" s="43">
-        <f>+C30*D30</f>
+      <c r="E32" s="43">
+        <f>+C32*D32</f>
         <v>10000000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B33" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="196">
+      <c r="C33" s="196">
         <f>+AA!I40</f>
         <v>200000</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D33" s="13">
         <v>30</v>
       </c>
-      <c r="E31" s="43">
-        <f>+C31*D31</f>
+      <c r="E33" s="43">
+        <f>+C33*D33</f>
         <v>6000000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I32" s="122"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="E11:E13"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="E26:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10021,10 +10164,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D58" sqref="A1:D58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10035,710 +10178,737 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>234</v>
       </c>
       <c r="B1" s="109"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="77" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="286" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="249" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="14">
+        <v>10</v>
+      </c>
+      <c r="D2" s="251">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="286" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="250"/>
+      <c r="C3" s="197">
+        <v>5</v>
+      </c>
+      <c r="D3" s="252"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="285" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B4" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C4" s="124">
         <v>40</v>
       </c>
-      <c r="D2" s="77">
+      <c r="D4" s="198">
         <v>480000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="250" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="42">
-        <v>20</v>
-      </c>
-      <c r="D3" s="248">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="105" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="251"/>
-      <c r="C4" s="37">
-        <v>20</v>
-      </c>
-      <c r="D4" s="249"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="107" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="249" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="42">
+        <v>20</v>
+      </c>
+      <c r="D5" s="251">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="105" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="250"/>
+      <c r="C6" s="37">
+        <v>20</v>
+      </c>
+      <c r="D6" s="252"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="250" t="s">
+      <c r="B7" s="249" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C7" s="35">
         <v>20</v>
       </c>
-      <c r="D5" s="248">
+      <c r="D7" s="251">
         <v>617000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="156" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="156" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="252"/>
-      <c r="C6" s="143">
-        <v>4</v>
-      </c>
-      <c r="D6" s="253"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="108" t="s">
+      <c r="B8" s="255"/>
+      <c r="C8" s="143">
+        <v>4</v>
+      </c>
+      <c r="D8" s="256"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="251"/>
-      <c r="C7" s="38">
+      <c r="B9" s="250"/>
+      <c r="C9" s="38">
         <v>2</v>
       </c>
-      <c r="D7" s="249"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="107" t="s">
+      <c r="D9" s="252"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="107" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="250" t="s">
+      <c r="B10" s="249" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C10" s="35">
         <v>20</v>
       </c>
-      <c r="D8" s="248">
+      <c r="D10" s="251">
         <v>1040000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="156" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="156" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="252"/>
-      <c r="C9" s="143">
-        <v>4</v>
-      </c>
-      <c r="D9" s="253"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="108" t="s">
+      <c r="B11" s="255"/>
+      <c r="C11" s="143">
+        <v>4</v>
+      </c>
+      <c r="D11" s="256"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="251"/>
-      <c r="C10" s="37">
+      <c r="B12" s="250"/>
+      <c r="C12" s="37">
         <v>2</v>
       </c>
-      <c r="D10" s="249"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="D12" s="252"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="250" t="s">
+      <c r="B13" s="249" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="35">
-        <v>4</v>
-      </c>
-      <c r="D11" s="248">
+      <c r="C13" s="35">
+        <v>4</v>
+      </c>
+      <c r="D13" s="251">
         <v>6800000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="157" t="s">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="157" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="252"/>
-      <c r="C12" s="143">
+      <c r="B14" s="255"/>
+      <c r="C14" s="143">
         <v>2</v>
       </c>
-      <c r="D12" s="253"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+      <c r="D14" s="256"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="250" t="s">
+      <c r="B15" s="249" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C15" s="35">
         <v>20</v>
       </c>
-      <c r="D13" s="248">
+      <c r="D15" s="251">
         <v>260000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="164" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="164" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="252"/>
-      <c r="C14" s="143">
+      <c r="B16" s="255"/>
+      <c r="C16" s="143">
         <v>20</v>
       </c>
-      <c r="D14" s="253"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="112" t="s">
+      <c r="D16" s="256"/>
+      <c r="F16" s="122"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="251"/>
-      <c r="C15" s="37">
+      <c r="B17" s="250"/>
+      <c r="C17" s="37">
         <v>10</v>
       </c>
-      <c r="D15" s="249"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="113" t="s">
+      <c r="D17" s="252"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C18" s="35">
         <v>20</v>
       </c>
-      <c r="D16" s="77">
+      <c r="D18" s="77">
         <v>40000</v>
       </c>
-      <c r="F16" s="122"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="155" t="s">
+      <c r="F18" s="122"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="155" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="250" t="s">
+      <c r="B19" s="249" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="35">
-        <v>4</v>
-      </c>
-      <c r="D17" s="248">
+      <c r="C19" s="35">
+        <v>4</v>
+      </c>
+      <c r="D19" s="251">
         <v>2680000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="165" t="s">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="165" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="252"/>
-      <c r="C18" s="143">
+      <c r="B20" s="255"/>
+      <c r="C20" s="143">
         <v>2</v>
       </c>
-      <c r="D18" s="253"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="155" t="s">
+      <c r="D20" s="256"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="155" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="250" t="s">
+      <c r="B21" s="249" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C21" s="35">
         <v>20</v>
       </c>
-      <c r="D19" s="248">
+      <c r="D21" s="251">
         <v>1800000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="167" t="s">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="167" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="251"/>
-      <c r="C20" s="124">
+      <c r="B22" s="250"/>
+      <c r="C22" s="124">
         <v>10</v>
       </c>
-      <c r="D20" s="249"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="D22" s="252"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="13" t="s">
+      <c r="B24" s="109"/>
+      <c r="C24" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D24" s="43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="107" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="246" t="s">
+      <c r="B25" s="253" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="42">
-        <v>4</v>
-      </c>
-      <c r="D23" s="248">
+      <c r="C25" s="42">
+        <v>4</v>
+      </c>
+      <c r="D25" s="251">
         <v>10500000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="108" t="s">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="108" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="247"/>
-      <c r="C24" s="37">
-        <v>1</v>
-      </c>
-      <c r="D24" s="249"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="111" t="s">
+      <c r="B26" s="254"/>
+      <c r="C26" s="37">
+        <v>1</v>
+      </c>
+      <c r="D26" s="252"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="111" t="s">
         <v>227</v>
       </c>
-      <c r="B25" s="218" t="s">
+      <c r="B27" s="221" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="35">
-        <v>4</v>
-      </c>
-      <c r="D25" s="248">
+      <c r="C27" s="35">
+        <v>4</v>
+      </c>
+      <c r="D27" s="251">
         <v>2900000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="112" t="s">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="247"/>
-      <c r="C26" s="38">
-        <v>2</v>
-      </c>
-      <c r="D26" s="249"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="155" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" s="250" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="35">
-        <v>4</v>
-      </c>
-      <c r="D27" s="248">
-        <v>4500000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="166" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" s="251"/>
+      <c r="B28" s="254"/>
       <c r="C28" s="38">
         <v>2</v>
       </c>
-      <c r="D28" s="249"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="115"/>
-      <c r="D29" s="116"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="D28" s="252"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="155" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="249" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="35">
+        <v>4</v>
+      </c>
+      <c r="D29" s="251">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="166" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="250"/>
+      <c r="C30" s="38">
+        <v>2</v>
+      </c>
+      <c r="D30" s="252"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="115"/>
+      <c r="D31" s="116"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="B30" s="109"/>
-      <c r="C30" s="13" t="s">
+      <c r="B32" s="109"/>
+      <c r="C32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D32" s="43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="120" t="s">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B33" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C33" s="42">
         <v>10</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D33" s="43">
         <v>3500000</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="120" t="s">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="120" t="s">
         <v>168</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B34" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C34" s="37">
         <v>10</v>
       </c>
-      <c r="D32" s="168">
+      <c r="D34" s="168">
         <v>800000</v>
       </c>
-      <c r="G32" s="122"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="153" t="s">
+      <c r="G34" s="122"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="153" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="246" t="s">
+      <c r="B35" s="253" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C35" s="35">
         <v>2</v>
       </c>
-      <c r="D33" s="248">
+      <c r="D35" s="251">
         <v>5600000</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="154" t="s">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="154" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="247"/>
-      <c r="C34" s="38">
+      <c r="B36" s="254"/>
+      <c r="C36" s="38">
         <v>6</v>
       </c>
-      <c r="D34" s="249"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="114" t="s">
+      <c r="D36" s="252"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B37" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="13">
-        <v>4</v>
-      </c>
-      <c r="D35" s="43">
+      <c r="C37" s="13">
+        <v>4</v>
+      </c>
+      <c r="D37" s="43">
         <v>2400000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="122"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="122"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="13" t="s">
+      <c r="B39" s="109"/>
+      <c r="C39" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D39" s="43" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="107" t="s">
-        <v>166</v>
-      </c>
-      <c r="B38" s="220" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="35">
-        <v>6</v>
-      </c>
-      <c r="D38" s="248">
-        <v>2220000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="108" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="254"/>
-      <c r="C39" s="38">
-        <v>6</v>
-      </c>
-      <c r="D39" s="249"/>
-      <c r="G39" s="122"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="107" t="s">
-        <v>207</v>
-      </c>
-      <c r="B40" s="220" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="223" t="s">
         <v>102</v>
       </c>
       <c r="C40" s="35">
-        <v>20</v>
-      </c>
-      <c r="D40" s="248">
-        <v>4250000</v>
+        <v>6</v>
+      </c>
+      <c r="D40" s="251">
+        <v>2220000</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="108" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="260"/>
+      <c r="C41" s="38">
+        <v>6</v>
+      </c>
+      <c r="D41" s="252"/>
+      <c r="G41" s="122"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="107" t="s">
+        <v>207</v>
+      </c>
+      <c r="B42" s="223" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="35">
+        <v>20</v>
+      </c>
+      <c r="D42" s="251">
+        <v>4250000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="108" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="254"/>
-      <c r="C41" s="38">
+      <c r="B43" s="260"/>
+      <c r="C43" s="38">
         <v>10</v>
       </c>
-      <c r="D41" s="249"/>
-      <c r="G41" s="122"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="152" t="s">
+      <c r="D43" s="252"/>
+      <c r="G43" s="122"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="152" t="s">
         <v>228</v>
       </c>
-      <c r="B42" s="246" t="s">
+      <c r="B44" s="253" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="35">
+      <c r="C44" s="35">
         <v>10</v>
       </c>
-      <c r="D42" s="248">
+      <c r="D44" s="251">
         <v>4500000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="149" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="B43" s="246"/>
-      <c r="C43" s="143">
+      <c r="B45" s="253"/>
+      <c r="C45" s="143">
         <v>10</v>
       </c>
-      <c r="D43" s="253"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="149" t="s">
+      <c r="D45" s="256"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="149" t="s">
         <v>226</v>
       </c>
-      <c r="B44" s="247"/>
-      <c r="C44" s="38">
+      <c r="B46" s="254"/>
+      <c r="C46" s="38">
         <v>20</v>
       </c>
-      <c r="D44" s="249"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="121" t="s">
+      <c r="D46" s="252"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="121" t="s">
         <v>230</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B47" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C47" s="13">
         <v>16</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D47" s="43">
         <v>2400000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B47" s="109"/>
-      <c r="C47" s="13" t="s">
+      <c r="B49" s="109"/>
+      <c r="C49" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="D49" s="43" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="107" t="s">
-        <v>169</v>
-      </c>
-      <c r="B48" s="250" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="42">
-        <v>60</v>
-      </c>
-      <c r="D48" s="248">
-        <v>4260000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="108" t="s">
-        <v>170</v>
-      </c>
-      <c r="B49" s="251"/>
-      <c r="C49" s="37">
-        <v>60</v>
-      </c>
-      <c r="D49" s="249"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="249" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="42">
+        <v>60</v>
+      </c>
+      <c r="D50" s="251">
+        <v>4260000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="108" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="250"/>
+      <c r="C51" s="37">
+        <v>60</v>
+      </c>
+      <c r="D51" s="252"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="107" t="s">
         <v>171</v>
       </c>
-      <c r="B50" s="250" t="s">
+      <c r="B52" s="249" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="35">
+      <c r="C52" s="35">
         <v>60</v>
       </c>
-      <c r="D50" s="248">
+      <c r="D52" s="251">
         <v>900000</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="105" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="B51" s="252"/>
-      <c r="C51" s="143">
+      <c r="B53" s="255"/>
+      <c r="C53" s="143">
         <v>60</v>
       </c>
-      <c r="D51" s="253"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="169" t="s">
+      <c r="D53" s="256"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="169" t="s">
         <v>173</v>
       </c>
-      <c r="B52" s="251"/>
-      <c r="C52" s="37">
+      <c r="B54" s="250"/>
+      <c r="C54" s="37">
         <v>60</v>
       </c>
-      <c r="D52" s="249"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="149" t="s">
-        <v>187</v>
-      </c>
-      <c r="B53" s="219" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="35">
-        <v>60</v>
-      </c>
-      <c r="D53" s="256">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="149" t="s">
-        <v>188</v>
-      </c>
-      <c r="B54" s="255"/>
-      <c r="C54" s="36">
-        <v>60</v>
-      </c>
-      <c r="D54" s="257"/>
+      <c r="D54" s="252"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="149" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" s="222" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="35">
+        <v>60</v>
+      </c>
+      <c r="D55" s="258">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="149" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="257"/>
+      <c r="C56" s="36">
+        <v>60</v>
+      </c>
+      <c r="D56" s="259"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="149" t="s">
         <v>189</v>
       </c>
-      <c r="B55" s="255"/>
-      <c r="C55" s="36">
+      <c r="B57" s="257"/>
+      <c r="C57" s="36">
         <v>60</v>
       </c>
-      <c r="D55" s="257"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="170" t="s">
+      <c r="D57" s="259"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="170" t="s">
         <v>190</v>
       </c>
-      <c r="B56" s="255"/>
-      <c r="C56" s="38">
+      <c r="B58" s="257"/>
+      <c r="C58" s="38">
         <v>60</v>
       </c>
-      <c r="D56" s="257"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="121" t="s">
+      <c r="D58" s="259"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="121" t="s">
         <v>179</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B59" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="143">
+      <c r="C59" s="143">
         <v>60</v>
       </c>
-      <c r="D57" s="77">
+      <c r="D59" s="77">
         <v>150000</v>
       </c>
-      <c r="F57" s="122"/>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="114" t="s">
+      <c r="F59" s="122"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B60" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C60" s="13">
         <v>60</v>
       </c>
-      <c r="D58" s="43">
+      <c r="D60" s="43">
         <v>2100000</v>
       </c>
-      <c r="F58" s="122"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H60" s="122"/>
+      <c r="F60" s="122"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H62" s="122"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
+  <mergeCells count="36">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="D44:D46"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="D55:D58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10750,10 +10920,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A11" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D44" sqref="A44:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10782,13 +10952,13 @@
       <c r="A2" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="267" t="s">
+      <c r="B2" s="270" t="s">
         <v>146</v>
       </c>
       <c r="C2" s="35">
         <v>4</v>
       </c>
-      <c r="D2" s="270">
+      <c r="D2" s="273">
         <v>10374000</v>
       </c>
     </row>
@@ -10796,171 +10966,171 @@
       <c r="A3" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="268"/>
+      <c r="B3" s="271"/>
       <c r="C3" s="36">
         <v>10</v>
       </c>
-      <c r="D3" s="271"/>
+      <c r="D3" s="274"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="268"/>
+      <c r="B4" s="271"/>
       <c r="C4" s="36">
         <v>2</v>
       </c>
-      <c r="D4" s="271"/>
+      <c r="D4" s="274"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="268"/>
+      <c r="B5" s="271"/>
       <c r="C5" s="36">
         <v>2</v>
       </c>
-      <c r="D5" s="271"/>
+      <c r="D5" s="274"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="268"/>
+      <c r="B6" s="271"/>
       <c r="C6" s="36">
         <v>16</v>
       </c>
-      <c r="D6" s="271"/>
+      <c r="D6" s="274"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="268"/>
+      <c r="B7" s="271"/>
       <c r="C7" s="36">
         <v>8</v>
       </c>
-      <c r="D7" s="271"/>
+      <c r="D7" s="274"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="268"/>
+      <c r="B8" s="271"/>
       <c r="C8" s="36">
         <v>20</v>
       </c>
-      <c r="D8" s="271"/>
+      <c r="D8" s="274"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="268"/>
+      <c r="B9" s="271"/>
       <c r="C9" s="36">
         <v>20</v>
       </c>
-      <c r="D9" s="271"/>
+      <c r="D9" s="274"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="268"/>
+      <c r="B10" s="271"/>
       <c r="C10" s="36">
         <v>10</v>
       </c>
-      <c r="D10" s="271"/>
+      <c r="D10" s="274"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="268"/>
+      <c r="B11" s="271"/>
       <c r="C11" s="36">
         <v>4</v>
       </c>
-      <c r="D11" s="271"/>
+      <c r="D11" s="274"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="268"/>
+      <c r="B12" s="271"/>
       <c r="C12" s="36">
         <v>4</v>
       </c>
-      <c r="D12" s="271"/>
+      <c r="D12" s="274"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="268"/>
+      <c r="B13" s="271"/>
       <c r="C13" s="36">
         <v>4</v>
       </c>
-      <c r="D13" s="271"/>
+      <c r="D13" s="274"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="268"/>
+      <c r="B14" s="271"/>
       <c r="C14" s="36">
         <v>2</v>
       </c>
-      <c r="D14" s="271"/>
+      <c r="D14" s="274"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="268"/>
+      <c r="B15" s="271"/>
       <c r="C15" s="36">
         <v>20</v>
       </c>
-      <c r="D15" s="271"/>
+      <c r="D15" s="274"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="268"/>
+      <c r="B16" s="271"/>
       <c r="C16" s="36">
         <v>20</v>
       </c>
-      <c r="D16" s="271"/>
+      <c r="D16" s="274"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="268"/>
+      <c r="B17" s="271"/>
       <c r="C17" s="36">
         <v>6</v>
       </c>
-      <c r="D17" s="271"/>
+      <c r="D17" s="274"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="268"/>
+      <c r="B18" s="271"/>
       <c r="C18" s="36">
         <v>8</v>
       </c>
-      <c r="D18" s="271"/>
+      <c r="D18" s="274"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="269"/>
+      <c r="B19" s="272"/>
       <c r="C19" s="38">
         <v>4</v>
       </c>
-      <c r="D19" s="272"/>
+      <c r="D19" s="275"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -10971,13 +11141,13 @@
       <c r="A21" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="261" t="s">
+      <c r="B21" s="264" t="s">
         <v>148</v>
       </c>
       <c r="C21" s="35">
         <v>2</v>
       </c>
-      <c r="D21" s="273">
+      <c r="D21" s="276">
         <v>11700000</v>
       </c>
     </row>
@@ -10985,71 +11155,71 @@
       <c r="A22" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="262"/>
+      <c r="B22" s="265"/>
       <c r="C22" s="36">
         <v>1</v>
       </c>
-      <c r="D22" s="274"/>
+      <c r="D22" s="277"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="130" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="262"/>
+      <c r="B23" s="265"/>
       <c r="C23" s="36">
         <v>2</v>
       </c>
-      <c r="D23" s="274"/>
+      <c r="D23" s="277"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="130" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="262"/>
+      <c r="B24" s="265"/>
       <c r="C24" s="36">
         <v>1</v>
       </c>
-      <c r="D24" s="274"/>
+      <c r="D24" s="277"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="262"/>
+      <c r="B25" s="265"/>
       <c r="C25" s="36">
         <v>1</v>
       </c>
-      <c r="D25" s="274"/>
+      <c r="D25" s="277"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="262"/>
+      <c r="B26" s="265"/>
       <c r="C26" s="37">
         <v>1</v>
       </c>
-      <c r="D26" s="274"/>
+      <c r="D26" s="277"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="262"/>
+      <c r="B27" s="265"/>
       <c r="C27" s="37">
         <v>2</v>
       </c>
-      <c r="D27" s="274"/>
+      <c r="D27" s="277"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="263"/>
+      <c r="B28" s="266"/>
       <c r="C28" s="38">
         <v>1</v>
       </c>
-      <c r="D28" s="275"/>
+      <c r="D28" s="278"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H29" s="122"/>
@@ -11058,13 +11228,13 @@
       <c r="A30" s="129" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="276" t="s">
+      <c r="B30" s="279" t="s">
         <v>149</v>
       </c>
       <c r="C30" s="35">
         <v>2</v>
       </c>
-      <c r="D30" s="258">
+      <c r="D30" s="261">
         <v>640000</v>
       </c>
     </row>
@@ -11072,44 +11242,44 @@
       <c r="A31" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="277"/>
+      <c r="B31" s="280"/>
       <c r="C31" s="36">
         <v>6</v>
       </c>
-      <c r="D31" s="259"/>
+      <c r="D31" s="262"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="277"/>
+      <c r="B32" s="280"/>
       <c r="C32" s="36">
         <v>2</v>
       </c>
-      <c r="D32" s="259"/>
+      <c r="D32" s="262"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="278"/>
+      <c r="B33" s="281"/>
       <c r="C33" s="38">
         <v>2</v>
       </c>
-      <c r="D33" s="260"/>
+      <c r="D33" s="263"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="129" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="261" t="s">
+      <c r="B35" s="264" t="s">
         <v>144</v>
       </c>
       <c r="C35" s="35">
         <v>4</v>
       </c>
-      <c r="D35" s="264">
+      <c r="D35" s="267">
         <v>31130000</v>
       </c>
     </row>
@@ -11117,74 +11287,88 @@
       <c r="A36" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="262"/>
+      <c r="B36" s="265"/>
       <c r="C36" s="36">
         <v>2</v>
       </c>
-      <c r="D36" s="265"/>
+      <c r="D36" s="268"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="262"/>
+      <c r="B37" s="265"/>
       <c r="C37" s="36">
         <v>1</v>
       </c>
-      <c r="D37" s="265"/>
+      <c r="D37" s="268"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="262"/>
+      <c r="B38" s="265"/>
       <c r="C38" s="36">
         <v>1</v>
       </c>
-      <c r="D38" s="265"/>
+      <c r="D38" s="268"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="262"/>
+      <c r="B39" s="265"/>
       <c r="C39" s="36">
         <v>2</v>
       </c>
-      <c r="D39" s="265"/>
+      <c r="D39" s="268"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="130" t="s">
         <v>130</v>
       </c>
-      <c r="B40" s="262"/>
+      <c r="B40" s="265"/>
       <c r="C40" s="36">
         <v>2</v>
       </c>
-      <c r="D40" s="265"/>
+      <c r="D40" s="268"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="130" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="262"/>
+      <c r="B41" s="265"/>
       <c r="C41" s="37">
         <v>2</v>
       </c>
-      <c r="D41" s="265"/>
+      <c r="D41" s="268"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="263"/>
+      <c r="B42" s="266"/>
       <c r="C42" s="38">
         <v>2</v>
       </c>
-      <c r="D42" s="266"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="269"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D43" s="148"/>
+    </row>
+    <row r="44" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="289" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="287" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="288">
+        <v>60</v>
+      </c>
+      <c r="D44" s="290">
+        <v>1200000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11206,7 +11390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3437CE9E-D719-49E9-8AFF-1B6127BD14F3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
